--- a/An1/Sem1/Arhitectura sistemelor de calcul/Tema/Info.xlsx
+++ b/An1/Sem1/Arhitectura sistemelor de calcul/Tema/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\GitHub\University\An1\Sem1\Arhitectura sistemelor de calcul\Tema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004ACB6-62D2-4141-85F4-B962A44E48D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FA1CA4-D230-407A-8453-5F0E40C366D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="3045" windowWidth="17280" windowHeight="9030" xr2:uid="{205F58D3-20D7-48A7-908A-7A5AE547DCE5}"/>
+    <workbookView xWindow="7920" yWindow="6450" windowWidth="17280" windowHeight="9030" xr2:uid="{205F58D3-20D7-48A7-908A-7A5AE547DCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
